--- a/medicine/Mort/Peine_de_mort_en_Thaïlande/Peine_de_mort_en_Thaïlande.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Thaïlande/Peine_de_mort_en_Thaïlande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Tha%C3%AFlande</t>
+          <t>Peine_de_mort_en_Thaïlande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Thaïlande, la peine de mort constitue le châtiment suprême dans ce pays. Jusqu'en 1935, elle s'exécutait par décapitation, puis de 1935 à 2003 par fusillade. De 1935 à 2002, 318 exécutions ont été recensées, dont 52 hommes et 3 femmes à partir de 1984[1]. Le pays avait cessé les exécutions en 1987, puis les a reprises en 1995[2]. Depuis 2003, la méthode d'exécution officielle du Royaume est devenue l'injection létale qui a depuis été utilisée six fois. 4 exécutions avaient eu lieu en 2003, puis après une pause de six ans le gouvernement a conduit deux exécutions supplémentaires le 24 août 2009.La dernière exécution a eu lieu le 18 juin 2018   [3]. De nombreuses organisations non gouvernementales, comme Amnesty International Thailand, condamnent cette pratique et exhortent la Thaïlande d'abroger la peine de mort[4].
-Les hommes condamnés à mort sont tous incarcérés et exécutés à la prison de Bangkwang (en) (plus connue sous le nom de Bangkok Hilton). La peine de mort est appliquée dans les cas les plus graves de meurtre et de trafic de drogue. Les juges sont enclins à la clémence lorsque l'accusé reconnait les faits et ne demande pas l'acquittement[5],[6]. En décembre 2019, 312 personnes se trouvaient dans le couloir de la mort[7]. Les exécutions sont le fruit d'un ordre du bureau du premier ministre après rejet de la grâce royale. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Thaïlande, la peine de mort constitue le châtiment suprême dans ce pays. Jusqu'en 1935, elle s'exécutait par décapitation, puis de 1935 à 2003 par fusillade. De 1935 à 2002, 318 exécutions ont été recensées, dont 52 hommes et 3 femmes à partir de 1984. Le pays avait cessé les exécutions en 1987, puis les a reprises en 1995. Depuis 2003, la méthode d'exécution officielle du Royaume est devenue l'injection létale qui a depuis été utilisée six fois. 4 exécutions avaient eu lieu en 2003, puis après une pause de six ans le gouvernement a conduit deux exécutions supplémentaires le 24 août 2009.La dernière exécution a eu lieu le 18 juin 2018   . De nombreuses organisations non gouvernementales, comme Amnesty International Thailand, condamnent cette pratique et exhortent la Thaïlande d'abroger la peine de mort.
+Les hommes condamnés à mort sont tous incarcérés et exécutés à la prison de Bangkwang (en) (plus connue sous le nom de Bangkok Hilton). La peine de mort est appliquée dans les cas les plus graves de meurtre et de trafic de drogue. Les juges sont enclins à la clémence lorsque l'accusé reconnait les faits et ne demande pas l'acquittement,. En décembre 2019, 312 personnes se trouvaient dans le couloir de la mort. Les exécutions sont le fruit d'un ordre du bureau du premier ministre après rejet de la grâce royale. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Tha%C3%AFlande</t>
+          <t>Peine_de_mort_en_Thaïlande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
